--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Nid1-Ptprf.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H2">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I2">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J2">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4440536666666667</v>
+        <v>0.242595</v>
       </c>
       <c r="N2">
-        <v>1.332161</v>
+        <v>0.727785</v>
       </c>
       <c r="O2">
-        <v>0.06598745121877765</v>
+        <v>0.03230700759563258</v>
       </c>
       <c r="P2">
-        <v>0.06598745121877764</v>
+        <v>0.03230700759563257</v>
       </c>
       <c r="Q2">
-        <v>24.60818006867912</v>
+        <v>18.099928284345</v>
       </c>
       <c r="R2">
-        <v>221.4736206181121</v>
+        <v>162.899354559105</v>
       </c>
       <c r="S2">
-        <v>0.005370457295383687</v>
+        <v>0.003429021683287759</v>
       </c>
       <c r="T2">
-        <v>0.005370457295383687</v>
+        <v>0.003429021683287758</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H3">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I3">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J3">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.023054</v>
       </c>
       <c r="O3">
-        <v>0.5460175144798203</v>
+        <v>0.4893229309549773</v>
       </c>
       <c r="P3">
-        <v>0.5460175144798202</v>
+        <v>0.4893229309549771</v>
       </c>
       <c r="Q3">
-        <v>203.6220079545743</v>
+        <v>274.1420706313847</v>
       </c>
       <c r="R3">
-        <v>1832.598071591168</v>
+        <v>2467.278635682462</v>
       </c>
       <c r="S3">
-        <v>0.04443820286865351</v>
+        <v>0.05193606790748898</v>
       </c>
       <c r="T3">
-        <v>0.04443820286865351</v>
+        <v>0.05193606790748898</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H4">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I4">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J4">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.602650666666667</v>
+        <v>3.574634666666667</v>
       </c>
       <c r="N4">
-        <v>7.807952</v>
+        <v>10.723904</v>
       </c>
       <c r="O4">
-        <v>0.3867601976927394</v>
+        <v>0.4760434029044768</v>
       </c>
       <c r="P4">
-        <v>0.3867601976927393</v>
+        <v>0.4760434029044767</v>
       </c>
       <c r="Q4">
-        <v>144.2314320743538</v>
+        <v>266.7022449325013</v>
       </c>
       <c r="R4">
-        <v>1298.082888669184</v>
+        <v>2400.320204392513</v>
       </c>
       <c r="S4">
-        <v>0.03147688063260045</v>
+        <v>0.05052659692834605</v>
       </c>
       <c r="T4">
-        <v>0.03147688063260045</v>
+        <v>0.05052659692834605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.41713066666667</v>
+        <v>74.609651</v>
       </c>
       <c r="H5">
-        <v>166.251392</v>
+        <v>223.828953</v>
       </c>
       <c r="I5">
-        <v>0.08138603925734668</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="J5">
-        <v>0.08138603925734669</v>
+        <v>0.1061386348809139</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.008309666666666667</v>
+        <v>0.017471</v>
       </c>
       <c r="N5">
-        <v>0.024929</v>
+        <v>0.052413</v>
       </c>
       <c r="O5">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913526</v>
       </c>
       <c r="P5">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913525</v>
       </c>
       <c r="Q5">
-        <v>0.4604978834631112</v>
+        <v>1.303505212621</v>
       </c>
       <c r="R5">
-        <v>4.144480951168</v>
+        <v>11.731546913589</v>
       </c>
       <c r="S5">
-        <v>0.0001004984607090434</v>
+        <v>0.0002469483617911352</v>
       </c>
       <c r="T5">
-        <v>0.0001004984607090434</v>
+        <v>0.0002469483617911352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H6">
         <v>1792.124268</v>
       </c>
       <c r="I6">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J6">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4440536666666667</v>
+        <v>0.242595</v>
       </c>
       <c r="N6">
-        <v>1.332161</v>
+        <v>0.727785</v>
       </c>
       <c r="O6">
-        <v>0.06598745121877765</v>
+        <v>0.03230700759563258</v>
       </c>
       <c r="P6">
-        <v>0.06598745121877764</v>
+        <v>0.03230700759563257</v>
       </c>
       <c r="Q6">
-        <v>265.2664507759054</v>
+        <v>144.92012893182</v>
       </c>
       <c r="R6">
-        <v>2387.398056983148</v>
+        <v>1304.28116038638</v>
       </c>
       <c r="S6">
-        <v>0.05789140610212002</v>
+        <v>0.02745504051979461</v>
       </c>
       <c r="T6">
-        <v>0.05789140610212001</v>
+        <v>0.0274550405197946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H7">
         <v>1792.124268</v>
       </c>
       <c r="I7">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J7">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>11.023054</v>
       </c>
       <c r="O7">
-        <v>0.5460175144798203</v>
+        <v>0.4893229309549773</v>
       </c>
       <c r="P7">
-        <v>0.5460175144798202</v>
+        <v>0.4893229309549771</v>
       </c>
       <c r="Q7">
-        <v>2194.964731208274</v>
+        <v>2194.964731208275</v>
       </c>
       <c r="R7">
         <v>19754.68258087447</v>
       </c>
       <c r="S7">
-        <v>0.4790262555348779</v>
+        <v>0.4158348883556051</v>
       </c>
       <c r="T7">
-        <v>0.4790262555348779</v>
+        <v>0.415834888355605</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H8">
         <v>1792.124268</v>
       </c>
       <c r="I8">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J8">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.602650666666667</v>
+        <v>3.574634666666667</v>
       </c>
       <c r="N8">
-        <v>7.807952</v>
+        <v>10.723904</v>
       </c>
       <c r="O8">
-        <v>0.3867601976927394</v>
+        <v>0.4760434029044768</v>
       </c>
       <c r="P8">
-        <v>0.3867601976927393</v>
+        <v>0.4760434029044767</v>
       </c>
       <c r="Q8">
-        <v>1554.757806953237</v>
+        <v>2135.396511789142</v>
       </c>
       <c r="R8">
-        <v>13992.82026257913</v>
+        <v>19218.56860610228</v>
       </c>
       <c r="S8">
-        <v>0.3393083268898131</v>
+        <v>0.4045497212094059</v>
       </c>
       <c r="T8">
-        <v>0.339308326889813</v>
+        <v>0.4045497212094059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>597.3747559999999</v>
+        <v>597.374756</v>
       </c>
       <c r="H9">
         <v>1792.124268</v>
       </c>
       <c r="I9">
-        <v>0.8773093221949784</v>
+        <v>0.8498168837991085</v>
       </c>
       <c r="J9">
-        <v>0.8773093221949785</v>
+        <v>0.8498168837991086</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.008309666666666667</v>
+        <v>0.017471</v>
       </c>
       <c r="N9">
-        <v>0.024929</v>
+        <v>0.052413</v>
       </c>
       <c r="O9">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913526</v>
       </c>
       <c r="P9">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913525</v>
       </c>
       <c r="Q9">
-        <v>4.963985097441332</v>
+        <v>10.436734362076</v>
       </c>
       <c r="R9">
-        <v>44.675865876972</v>
+        <v>93.930609258684</v>
       </c>
       <c r="S9">
-        <v>0.001083333668167549</v>
+        <v>0.001977233714302981</v>
       </c>
       <c r="T9">
-        <v>0.001083333668167549</v>
+        <v>0.001977233714302981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H10">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I10">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J10">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4440536666666667</v>
+        <v>0.242595</v>
       </c>
       <c r="N10">
-        <v>1.332161</v>
+        <v>0.727785</v>
       </c>
       <c r="O10">
-        <v>0.06598745121877765</v>
+        <v>0.03230700759563258</v>
       </c>
       <c r="P10">
-        <v>0.06598745121877764</v>
+        <v>0.03230700759563257</v>
       </c>
       <c r="Q10">
-        <v>12.40196301490223</v>
+        <v>7.395358166099999</v>
       </c>
       <c r="R10">
-        <v>111.61766713412</v>
+        <v>66.55822349489999</v>
       </c>
       <c r="S10">
-        <v>0.002706588320004739</v>
+        <v>0.001401046628962032</v>
       </c>
       <c r="T10">
-        <v>0.002706588320004739</v>
+        <v>0.001401046628962031</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H11">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I11">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J11">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.023054</v>
       </c>
       <c r="O11">
-        <v>0.5460175144798203</v>
+        <v>0.4893229309549773</v>
       </c>
       <c r="P11">
-        <v>0.5460175144798202</v>
+        <v>0.4893229309549771</v>
       </c>
       <c r="Q11">
-        <v>102.6208604059645</v>
+        <v>112.01032229884</v>
       </c>
       <c r="R11">
-        <v>923.5877436536801</v>
+        <v>1008.09290068956</v>
       </c>
       <c r="S11">
-        <v>0.0223958434507402</v>
+        <v>0.02122029534487031</v>
       </c>
       <c r="T11">
-        <v>0.0223958434507402</v>
+        <v>0.02122029534487031</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H12">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I12">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J12">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.602650666666667</v>
+        <v>3.574634666666667</v>
       </c>
       <c r="N12">
-        <v>7.807952</v>
+        <v>10.723904</v>
       </c>
       <c r="O12">
-        <v>0.3867601976927394</v>
+        <v>0.4760434029044768</v>
       </c>
       <c r="P12">
-        <v>0.3867601976927393</v>
+        <v>0.4760434029044767</v>
       </c>
       <c r="Q12">
-        <v>72.68936106531557</v>
+        <v>108.97052153984</v>
       </c>
       <c r="R12">
-        <v>654.2042495878401</v>
+        <v>980.73469385856</v>
       </c>
       <c r="S12">
-        <v>0.01586363186308385</v>
+        <v>0.02064440672521754</v>
       </c>
       <c r="T12">
-        <v>0.01586363186308385</v>
+        <v>0.02064440672521754</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>27.92897333333334</v>
+        <v>30.48438</v>
       </c>
       <c r="H13">
-        <v>83.78692000000001</v>
+        <v>91.45313999999999</v>
       </c>
       <c r="I13">
-        <v>0.04101671257207979</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="J13">
-        <v>0.0410167125720798</v>
+        <v>0.04336664808137267</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1237,28 +1237,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.008309666666666667</v>
+        <v>0.017471</v>
       </c>
       <c r="N13">
-        <v>0.024929</v>
+        <v>0.052413</v>
       </c>
       <c r="O13">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913526</v>
       </c>
       <c r="P13">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913525</v>
       </c>
       <c r="Q13">
-        <v>0.2320804587422222</v>
+        <v>0.53259260298</v>
       </c>
       <c r="R13">
-        <v>2.08872412868</v>
+        <v>4.793333426819999</v>
       </c>
       <c r="S13">
-        <v>5.06489382510058E-05</v>
+        <v>0.0001008993823227835</v>
       </c>
       <c r="T13">
-        <v>5.06489382510058E-05</v>
+        <v>0.0001008993823227835</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H14">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I14">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J14">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4440536666666667</v>
+        <v>0.242595</v>
       </c>
       <c r="N14">
-        <v>1.332161</v>
+        <v>0.727785</v>
       </c>
       <c r="O14">
-        <v>0.06598745121877765</v>
+        <v>0.03230700759563258</v>
       </c>
       <c r="P14">
-        <v>0.06598745121877764</v>
+        <v>0.03230700759563257</v>
       </c>
       <c r="Q14">
-        <v>0.08705834954677778</v>
+        <v>0.115591584735</v>
       </c>
       <c r="R14">
-        <v>0.783525145921</v>
+        <v>1.040324262615</v>
       </c>
       <c r="S14">
-        <v>1.899950126919938E-05</v>
+        <v>2.189876358818142E-05</v>
       </c>
       <c r="T14">
-        <v>1.899950126919938E-05</v>
+        <v>2.189876358818142E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H15">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I15">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J15">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.023054</v>
       </c>
       <c r="O15">
-        <v>0.5460175144798203</v>
+        <v>0.4893229309549773</v>
       </c>
       <c r="P15">
-        <v>0.5460175144798202</v>
+        <v>0.4893229309549771</v>
       </c>
       <c r="Q15">
-        <v>0.7203700515215555</v>
+        <v>1.750753698522889</v>
       </c>
       <c r="R15">
-        <v>6.483330463693999</v>
+        <v>15.756783286706</v>
       </c>
       <c r="S15">
-        <v>0.0001572126255486036</v>
+        <v>0.0003316793470128644</v>
       </c>
       <c r="T15">
-        <v>0.0001572126255486036</v>
+        <v>0.0003316793470128644</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H16">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I16">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J16">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.602650666666667</v>
+        <v>3.574634666666667</v>
       </c>
       <c r="N16">
-        <v>7.807952</v>
+        <v>10.723904</v>
       </c>
       <c r="O16">
-        <v>0.3867601976927394</v>
+        <v>0.4760434029044768</v>
       </c>
       <c r="P16">
-        <v>0.3867601976927393</v>
+        <v>0.4760434029044767</v>
       </c>
       <c r="Q16">
-        <v>0.5102592062524445</v>
+        <v>1.703240734428444</v>
       </c>
       <c r="R16">
-        <v>4.592332856272</v>
+        <v>15.329166609856</v>
       </c>
       <c r="S16">
-        <v>0.0001113583072420284</v>
+        <v>0.0003226780415072488</v>
       </c>
       <c r="T16">
-        <v>0.0001113583072420284</v>
+        <v>0.0003226780415072488</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1960536666666667</v>
+        <v>0.4764796666666666</v>
       </c>
       <c r="H17">
-        <v>0.5881609999999999</v>
+        <v>1.429439</v>
       </c>
       <c r="I17">
-        <v>0.0002879259755950811</v>
+        <v>0.0006778332386049212</v>
       </c>
       <c r="J17">
-        <v>0.0002879259755950812</v>
+        <v>0.0006778332386049213</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1485,28 +1485,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.008309666666666667</v>
+        <v>0.017471</v>
       </c>
       <c r="N17">
-        <v>0.024929</v>
+        <v>0.052413</v>
       </c>
       <c r="O17">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913526</v>
       </c>
       <c r="P17">
-        <v>0.001234836608662848</v>
+        <v>0.002326658544913525</v>
       </c>
       <c r="Q17">
-        <v>0.001629140618777778</v>
+        <v>0.008324576256333333</v>
       </c>
       <c r="R17">
-        <v>0.014662265569</v>
+        <v>0.074921186307</v>
       </c>
       <c r="S17">
-        <v>3.555415352497719E-07</v>
+        <v>1.577086496626549E-06</v>
       </c>
       <c r="T17">
-        <v>3.555415352497719E-07</v>
+        <v>1.577086496626549E-06</v>
       </c>
     </row>
   </sheetData>
